--- a/biology/Histoire de la zoologie et de la botanique/Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique/Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique/Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Voici une orientation bibliographique sur l'histoire de la zoologie et de la botanique (classé par ordre alphabétique des auteurs).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Histoire des sciences
-(en) Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
+          <t>Histoire des sciences</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Ouvrage présentant environ 30 000 courtes notices biographiques.
 (en) Robert Mortimer Gascoigne (1987). A Chronology of the History of Science, 1450-1900, Garland (New York) : xi + 585 p.  (ISBN 0-8240-9106-X)
 (en) John L. Heilbron (dir.) (2003). The Oxford Companion to the History of Modern Science, Oxford University Press (Oxford) : xxviii + 941 p., 8 pl.  (ISBN 0-19-511229-6)
@@ -525,9 +542,43 @@
 Tome I : La science antique et médiévale (des origines à 1450), 1957 ; viii + 627 p., 48 pl.
 Tome II : La science moderne (de 1450 à 1800), 1958 ; vii + 800 p., 48 pl.
 Tome III : La science contemporaine, Volume 1 : Le XIXe siècle, 1961 ; viii + 755 p., 48 pl.
-Tome III : La science contemporaine, Volume 2 : Le XXe siècle, 1964 ; viii + 1080 p., 64 pl.
-Histoire de l'environnement
-(fr) Valérie Chansigaud (2013). L'homme et la nature : Une histoire mouvementée, Delachaux et Niestlé (Paris) : 272 p.  (ISBN 978-2603018439)
+Tome III : La science contemporaine, Volume 2 : Le XXe siècle, 1964 ; viii + 1080 p., 64 pl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histoire de l'environnement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(fr) Valérie Chansigaud (2013). L'homme et la nature : Une histoire mouvementée, Delachaux et Niestlé (Paris) : 272 p.  (ISBN 978-2603018439)
 Initiation à l'histoire environnementale explorant l'impact de l'humanité sur la nature.
 (en) J. Donald Hughes (1975). Ecology in ancient civilizations, University of New Mexico Press (Albuquerque) : x + 181 p.  (ISBN 0-8263-0367-6)
 (en) J. Donald Hughes (2002). An Environmental History of the World. Humankind's Changing Role in the Community of Life, Routledge : xiv + 264 p.  (ISBN 0-415-13619-9)
@@ -542,9 +593,43 @@
 (en) John Sheail (1976). Nature in trust : The history of nature conservation in Britain, Blackie (Glasgow) : xiv + 270 p.
 (en) John Sheail (2002). An environmental history of twentieth-century Britain, Palgrave (Basingstoke) : 320 p.  (ISBN 0-333-94981-1)
 (en) Ian Gordon Simmons (2001). An environmental history of Great Britain : from 10,000 years ago to the present, Edinburgh University Press (Édimbourg) : xi + 419 p.  (ISBN 0-7486-1283-1)
-(en) Louis S. Warren (2006). American Environmental History, Blackwell Science : 384 p.  (ISBN 0-631-22864-0)
-Biologie
-(fr) Réjane Bernier (1975). Aux sources de la biologie. Tome premier. Les vingt premiers siècles. La classification, Presses de l’Université du Québec (Québec) et Masson (Paris) : xii + 264 p.  (ISBN 0-7770-0065-2)
+(en) Louis S. Warren (2006). American Environmental History, Blackwell Science : 384 p.  (ISBN 0-631-22864-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(fr) Réjane Bernier (1975). Aux sources de la biologie. Tome premier. Les vingt premiers siècles. La classification, Presses de l’Université du Québec (Québec) et Masson (Paris) : xii + 264 p.  (ISBN 0-7770-0065-2)
 (fr) Réjane Bernier (1986). Aux sources de la biologie. II. Les théories de la génération après la renaissance: La cytologie et la génétique, Éditions Orbis Publishing (Québec) et Masson (Paris) : 422 p.  (ISBN 2-9800545-0-X)
 (fr) Réjane Bernier (1988). Aux sources de la biologie. III. L’anatomie, Éditions Orbis Publishing (Québec) et Masson (Paris) : xv + 267 p.  (ISBN 2-9800545-2-6)
 Cette série d'ouvrages comporte quatre volumes (voir le quatrième dans la partie sur la paléontologie et les fossiles de cette bibliographie). Il s'agit d'un recueil de textes historiques accompagnés par des notices introductives.
@@ -570,10 +655,47 @@
 (fr) Hendrik Cornelis Dirk de Wit (1993). Histoire du développement de la biologie. Volume 2, Presses polytechniques et universitaires romandes (Lausanne) : 474 p.  (ISBN 2-88074-252-8)
 (fr) Hendrik Cornelis Dirk de Wit (1994). Histoire du développement de la biologie. Volume 3, Presses polytechniques et universitaires romandes (Lausanne) : 670 p.  (ISBN 2-88074-264-1)
 (en) Lisa Yount (2003). A to Z of Biologists : Notable scientists, Infobase Publishing (New York), collection Facts on File science library : x + 390 p.  (ISBN 0-8160-4541-0)
-Ouvrage présentant environ 180 notices biographiques.
-Histoire naturelle
-Ouvrages généraux sur l'histoire naturelle
-(fr) Henri Daudin (1926). De Linné à Jussieu : Méthodes de la classification et idée de série en botanique et en zoologie (1740-1790) [1 vol.], Félix Alcan (Paris) : ii + 264 p. ; reproduit en fac-similé (1983). Édition des Archives contemporaines (Paris), collection Réimpressions.  (ISBN 2-903928-05-3)
+Ouvrage présentant environ 180 notices biographiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Histoire naturelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux sur l'histoire naturelle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(fr) Henri Daudin (1926). De Linné à Jussieu : Méthodes de la classification et idée de série en botanique et en zoologie (1740-1790) [1 vol.], Félix Alcan (Paris) : ii + 264 p. ; reproduit en fac-similé (1983). Édition des Archives contemporaines (Paris), collection Réimpressions.  (ISBN 2-903928-05-3)
 (fr) Henri Daudin (1926). Cuvier et Lamarck : Les classes zoologiques et l’idée de série animale (1790-1830) [2 vol.], Félix Alcan (Paris) : xiii + 460 &amp; 338 p. ; reproduit en fac-similé (1983). Édition des Archives contemporaines (Paris), collection Réimpressions.  (ISBN 2-903928-02-9)
 (fr) Émile Guyénot (1957). Les sciences de la vie aux XVIIe et XVIIIe, l'idée d'évolution, Albin Michel (Paris) : 462 p.
 (en) David M. Knight (1981). Ordering the world. A history of classifying man, Burnett Books (Londres) : 215 p.  (ISBN 0-233-97293-5)
@@ -581,19 +703,133 @@
 (fr) Emma C. Spary (2005). Le Jardin d'utopie : L'histoire naturelle en France de l'Ancien Régime à la Révolution, Muséum national d'histoire naturelle (Paris) : 407 p.  (ISBN 2-85653-566-6) ; édition originale en anglais (2000). Utopia's garden : French natural history from Old Regime to Revolution, The University of Chicago Press (Chicago, Londres) : xv + 321 p.  (ISBN 0-226-76862-7)
 (en) Nancy Leys Stepan (2001). Picturing Tropical Nature, Reaktion Books Ltd (Londres), collection Picturing History : 283 p.  (ISBN 1-86189-084-2)
 (fr) Keith Thomas (1985). Dans le jardin de la nature. La mutation des sensibilités en Angleterre à l’époque moderne (1500-1800), Gallimard (Paris), collection Bibliothèque des histoires : 403 p.  (ISBN 2-07-070449-1)
-Ouvrage présentant l'évolution de la perception de la nature de la Renaissance au début de l'époque classique.
-Recueil de biographies de naturalistes
-Nota bene : les biographies individuelles se trouvent sur les articles correspondants. Plus bas, sont cités plusieurs recueils de biographies de naturalistes par spécialité : ornithologie, herpétologie, etc.
+Ouvrage présentant l'évolution de la perception de la nature de la Renaissance au début de l'époque classique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Histoire naturelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Recueil de biographies de naturalistes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nota bene : les biographies individuelles se trouvent sur les articles correspondants. Plus bas, sont cités plusieurs recueils de biographies de naturalistes par spécialité : ornithologie, herpétologie, etc.
 (fr)    Philippe Jaussaud et Édouard-Raoul Brygoo (2004), Du Jardin au Muséum en 516 biographies. Publications scientifiques du Muséum national d'histoire naturelle, Paris, 630 pages,  (ISBN 2-85653-565-8).
 Ces notices présentent tous les chercheurs de l'institution. Des annexes présentent l'origine du Jardin des plantes, des fac-similés de documents divers, des chronologies sur les intendants et les directeurs, des différentes chaires, la reproduction des décrets et arrêtés conduisant à la création du Muséum.
 (fr) Jules Pizzetta (1893). Galerie des naturalistes. Histoire des sciences naturelles depuis leur origine jusqu'à nos jours. Hennuyer (Paris) : vii + 410 p. (texte disponible sur le site de la bibliothèque numérique gallica).
 Ouvrage ancien présentant une petite trentaine de notices biographiques.
-(en)    Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 0-313-23047-1)
-Enseignement de l'histoire naturelle
-(fr) Francis Gires (dir.) (2013). L'empire des sciences... naturelles : cabinets d’histoire naturelle des lycées impériaux de Périgueux et d’Angoulême, Association de Sauvegarde et d'Étude des Instruments Scientifiques et Techniques de l'Enseignement (Niort) : 405 p.  (ISBN 978-2-9523415-2-3)
-(fr) Nicole Hulin (dir.) (2002). Sciences naturelles et formation de l'esprit : autour de la réforme de l'enseignement de 1902, Presses universitaires du Septentrion (Villeneuve-d'Ascq), collection Histoire des sciences : 395 p.  (ISBN 2-85939-749-3)
-Histoire naturelle et colonialisme
-(en) Peder Anker (2001). Imperial Ecology : Environmental Order in the British Empire, 1895-1945, Cambridge University Press (Cambridge) : 352 p.  (ISBN 0-674-00595-3)
+(en)    Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 0-313-23047-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Histoire naturelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Enseignement de l'histoire naturelle</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(fr) Francis Gires (dir.) (2013). L'empire des sciences... naturelles : cabinets d’histoire naturelle des lycées impériaux de Périgueux et d’Angoulême, Association de Sauvegarde et d'Étude des Instruments Scientifiques et Techniques de l'Enseignement (Niort) : 405 p.  (ISBN 978-2-9523415-2-3)
+(fr) Nicole Hulin (dir.) (2002). Sciences naturelles et formation de l'esprit : autour de la réforme de l'enseignement de 1902, Presses universitaires du Septentrion (Villeneuve-d'Ascq), collection Histoire des sciences : 395 p.  (ISBN 2-85939-749-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Histoire naturelle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Histoire naturelle et colonialisme</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Peder Anker (2001). Imperial Ecology : Environmental Order in the British Empire, 1895-1945, Cambridge University Press (Cambridge) : 352 p.  (ISBN 0-674-00595-3)
 (en) Tony Ballantyne (2004). Science, Empire and the European Exploration of the Pacific, Ashgate Publishing, Limited (Hampshire) : 367 p.  (ISBN 0-7546-3562-7)
 (fr) Marie-Noëlle Bourguet (1999). De l’inventaire du monde à la mise en valeur du globe : botanique et colonisation, Revue française d’histoire d’outre-mer, 86 (322-333) : 425 p.
 (en) Alfred W. Crosby (dir.) (2004). Ecological imperialism: the biological expansion of Europe, 900-1900, Cambridge University Press (Cambridge) : xxii + 368 p. + 16 p. de pl.  (ISBN 0-521-54618-4)
@@ -604,41 +840,80 @@
 (en) L.C. Rookmaaker (1989). The zoological exploration of southern Africa 1650-1790, Balkema (Rotterdam) : 392 p.  (ISBN 9061918677)
 (en) Londa Schiebinger (2004). Plants and Empire: Colonial Bioprospecting in the Atlantic World, Cambridge University Press (Cambridge) : 306 p.  (ISBN 0674014871)
 (en) Londa Schiebinger et Claudia Swan (dir.) (2007). Colonial Botany: Science, Commerce, and Politics in the Early Modern World, University of Pennsylvania Press (Philadelphia) : 346 p.  (ISBN 0812220099)
-(en) Sujit Sivasundaram (2005). Nature and the Godly Empire: Science and Evangelical Mission in the Pacific, 1795–1850, Cambridge University Press (Cambridge) : 236 p.  (ISBN 0-521-84836-9)
-Microscopie
-(en) Marc J. Ratcliff (2009). The Quest for the Invisible : Microscopy in the Enlightenment, Ashgate Publishing Limited (Farnham, Surrey) et Ashgate Publishing Company (Burlington, Vermont) : xii + 315 p.  (ISBN 978-0-7546-6150-4)
+(en) Sujit Sivasundaram (2005). Nature and the Godly Empire: Science and Evangelical Mission in the Pacific, 1795–1850, Cambridge University Press (Cambridge) : 236 p.  (ISBN 0-521-84836-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Microscopie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Marc J. Ratcliff (2009). The Quest for the Invisible : Microscopy in the Enlightenment, Ashgate Publishing Limited (Farnham, Surrey) et Ashgate Publishing Company (Burlington, Vermont) : xii + 315 p.  (ISBN 978-0-7546-6150-4)
 (fr) Jean Vallade (2008). L'œil de lynx des microscopistes : La sexualité végétale, l'apport des micrographes depuis le XVIIe siècle, Éditions universitaires de Dijon (Dijon) : 337 p.  (ISBN 978-2-915552-99-7)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ouvrages généraux
-(fr) Lucile Allorge (2003). La fabuleuse odyssée des plantes : les botanistes voyageurs, les jardins des plantes, les herbiers. JC Lattès (Paris) : 727 p. + 16 pl.  (ISBN 2-7096-2327-7) ; paru en édition de poche (2006). Hachette Littératures (Paris), collection Pluriel Sciences : 861 p.  (ISBN 2-01-279287-1)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(fr) Lucile Allorge (2003). La fabuleuse odyssée des plantes : les botanistes voyageurs, les jardins des plantes, les herbiers. JC Lattès (Paris) : 727 p. + 16 pl.  (ISBN 2-7096-2327-7) ; paru en édition de poche (2006). Hachette Littératures (Paris), collection Pluriel Sciences : 861 p.  (ISBN 2-01-279287-1)
 (en) Mauro Ambrosoli (1997). The Wild and the Sown : Botany and Agriculture in Western Europe, 1350-1850, Cambridge University Press (Cambridge) : xxiv + 460 p. + 16 pl.  (ISBN 0-521-46509-5)
 (en) Agnes Arber (1938). Herbals, their origin and evolution. A chapter in the history of botany, 1470-1670. Cambridge University Press (Cambridge) : xxxii + 358 p.
 (en) Frank J. Anderson (1977). An Illustrated history of the herbals. Columbia University Press : xiv + 270 p.
@@ -661,18 +936,86 @@
 (en) Julius von Sachs (1890). History of botany, 1530–1860, Clarendon Press (Oxford) : xv + 568 p.
 (de) Alfred Schmidt (1979). Drogen und Drogenhandel im Altertum, Arno (New York) : viii + 136 p.  (ISBN 0-405-12394-9)
 (fr) Sabine van Sprang, Gerda De Brabandere et Elisabeth Lauwers-Derveaux (dir.) (1996). L'empire flore : histoire et représentation des fleurs en Europe du XVIe au XIXe siècle, La Renaissance du livre (Bruxelles) : 367 p.  (ISBN 2-8041-2449-5)
-(fr) Henriette Walter et Pierre Avenas (2017). La Majestueuse Histoire du nom des arbres : Du modeste noisetier au séquoia géant, Éditions Robert Laffont (Paris) : 561 p.  (ISBN 978-2-221-13622-5)
-La botanique en France
-(fr) Georges J. Aillaud, Jean-Patrick Ferrari et Guy Hazzan (1982). Les botanistes à Marseille et en Provence du xvie siècle au xixe siècle. (Catalogue de l’exposition), La Ville de Marseille : 136 p. + 12 pl.
+(fr) Henriette Walter et Pierre Avenas (2017). La Majestueuse Histoire du nom des arbres : Du modeste noisetier au séquoia géant, Éditions Robert Laffont (Paris) : 561 p.  (ISBN 978-2-221-13622-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La botanique en France</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(fr) Georges J. Aillaud, Jean-Patrick Ferrari et Guy Hazzan (1982). Les botanistes à Marseille et en Provence du xvie siècle au xixe siècle. (Catalogue de l’exposition), La Ville de Marseille : 136 p. + 12 pl.
 (fr)    Adrien Davy de Virville (dir.) (1955). Histoire de la botanique en France. SEDES (Paris) : 394 p.
 (fr)    Benoît Dayrat (2003). Les Botanistes et la Flore de France, trois siècles de découvertes. Publication scientifiques du Muséum national d'histoire naturelle : 690 p.  (ISBN 2-85653-548-8)
 (fr) Pierre Jacquet (1996). Les Botanistes lyonnais du XVIe siècle, Bulletin mensuel de la Société linnéenne de Lyon, 65 (Suppl. 5) : 1-70.  (ISSN 0366-1326)
 (fr) Jean Lhoste et Jacques Ponchet (1994). Histoire de la phytopathologie et des artisans de son évolution en France, OPIE : 343 p.
 (fr) Philippe Morat, Gérard-Guy Aymonin et Jean-Claude Jolinon (2004). L’Herbier du monde. Cinq siècles d’aventures et de passions botaniques au Muséum national d'histoire naturelle, Muséum national d'histoire naturelle à Paris et Les Arènes/L’iconoclaste (Paris) : 240 p.  (ISBN 2-286-00727-6)
 (en) Williams L. Roger (dir.) (2001). Botanophilia in eighteenth-century France : the spirit of Enlightenment, Kluwer (Dordrecht), collection Archives internationales d'histoire des idées  : 197 p.  (ISBN 0-7923-6886-X)
-(en) Williams L. Roger (2003). French botany in the enlightenment : the III-fated Voyages of La Pérouse and his rescuers, Kluwer (Dordrecht) : 240 p.  (ISBN 1-4020-1109-1)
-La botanique des autres pays
-(en) David Elliston Allen (1986). The Botanists : a history of the Botanical Society of the British Isles through 150 years, St-Paul’s Bibliobraphies : xv + 232 p.  (ISBN 0906795362)
+(en) Williams L. Roger (2003). French botany in the enlightenment : the III-fated Voyages of La Pérouse and his rescuers, Kluwer (Dordrecht) : 240 p.  (ISBN 1-4020-1109-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>La botanique des autres pays</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) David Elliston Allen (1986). The Botanists : a history of the Botanical Society of the British Isles through 150 years, St-Paul’s Bibliobraphies : xv + 232 p.  (ISBN 0906795362)
 (en) Ray Desmond (1992). The European discovery of the Indian flora, Oxford University Press : xii + 355 p.  (ISBN 0-19-854684-X)
 (en) Ray Desmond (1994). Dictionary Of British And Irish Botanists And Horticulturists Including plant collectors, flower painters and garden designers, Taylor &amp; Francis (London, Bristol) et The Natural History Museum (London) : xl + 825 p.  (ISBN 0-85066-843-3)
 (en) Joseph Reynolds Green (1914). A history of Botany : in the United Kingdom from the earliest times to the end of the 19th century, J.M. Dent &amp; Sons Limited (London, Toronto) et E.P. Dutton &amp; Co. (New York) : 648 p.
@@ -680,77 +1023,189 @@
 (en) Elizabeth B. Keeney (1992). The Botanizers : Amateur scientifists in 19th century America, University of North Carolina Press (Chapel Hill) : xii + 206 p.  (ISBN 0807820466)
 (en) Hans Walter Lack et David J. Mabberley (1999). The Flora Graeca story : Sibthorp, Bauer, and Hawkins in the Levant, Oxford University Press : xxvii + 327 p. + xvi pl.  (ISBN 0-19-854897-4)
 (en) Andrew Denny Rodgers (1944). American Botany, 1873-1892 : Decades of transition, Oxford University Press : 340 p.
-(en) Ann B. Shteir (1996). Cultivating Women, Cultivating Science. Flora’s daughters and botany in England 1760 to 1860, Johns Hopkins University Press (Baltimore) : xi + 301 p.  (ISBN 0-8018-5141-6)
-La botanique médicale
-(en) Richard Le Strange (1977). A History of Herbal Plants. Angus &amp; Robertson Limited (Sydney) : xxi + 304 p.  (ISBN 0-207-95645-6)
-(en) Barbara Griggs (1997). Green Pharmacy. The History and Evolution of Western Herbal Medicine. Inner Traditions Intl Ltd : xvi + 432 p.  (ISBN 0892817275)
-Site internet
-De très nombreuses biographies en anglais sont disponibles sur le site de l'herbier national hollandais.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+(en) Ann B. Shteir (1996). Cultivating Women, Cultivating Science. Flora’s daughters and botany in England 1760 to 1860, Johns Hopkins University Press (Baltimore) : xi + 301 p.  (ISBN 0-8018-5141-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>La botanique médicale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) Richard Le Strange (1977). A History of Herbal Plants. Angus &amp; Robertson Limited (Sydney) : xxi + 304 p.  (ISBN 0-207-95645-6)
+(en) Barbara Griggs (1997). Green Pharmacy. The History and Evolution of Western Herbal Medicine. Inner Traditions Intl Ltd : xvi + 432 p.  (ISBN 0892817275)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Site internet</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>De très nombreuses biographies en anglais sont disponibles sur le site de l'herbier national hollandais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Mycologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ouvrages généraux
-(en) Geoffrey Clough Ainsworth (1976). Introduction to the history of mycology. Cambridge University Press (Cambridge) : xi + 359 p.  (ISBN 0-521-21013-5)
-(en) Brian C. Sutton (dir.) (1996). A century of mycology. British Mycological Society Centenary symposium (1996, University of Sheffield). Cambridge University Press (Cambridge) : xiii + 398 p.  (ISBN 0-521-57056-5)
-Mycologie médicale
-(en) Geoffrey Clough Ainsworth (1986). Introduction to the History of Medical and Veterinary Mycology. Cambridge University Press (Cambridge) : xi + 228 p.  (ISBN 0-521-30715-5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(en) Geoffrey Clough Ainsworth (1976). Introduction to the history of mycology. Cambridge University Press (Cambridge) : xi + 359 p.  (ISBN 0-521-21013-5)
+(en) Brian C. Sutton (dir.) (1996). A century of mycology. British Mycological Society Centenary symposium (1996, University of Sheffield). Cambridge University Press (Cambridge) : xiii + 398 p.  (ISBN 0-521-57056-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mycologie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mycologie médicale</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(en) Geoffrey Clough Ainsworth (1986). Introduction to the History of Medical and Veterinary Mycology. Cambridge University Press (Cambridge) : xi + 228 p.  (ISBN 0-521-30715-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ouvrages généraux
-(en) J.H.R. Andrews (1988). The Southern Ark: Zoological Discovery in New Zealand, 1769-1900, University of Hawaii Press : 238 p.  (ISBN 0824811925)
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(en) J.H.R. Andrews (1988). The Southern Ark: Zoological Discovery in New Zealand, 1769-1900, University of Hawaii Press : 238 p.  (ISBN 0824811925)
 (fr) Julius Victor Carus (1880). Histoire de la zoologie depuis l’Antiquité jusqu’au XIXe siècle. Baillière (Paris) : viii + 623 p. (texte disponible sur le site de la bibliothèque numérique gallica).
 (en) Francis Joseph Cole (1926). The History of Protozoology, University of London Press (Londres) : 64 p.
 (en) Francis Joseph Cole (1944). A History of Comparative Anatomy from Aristotle to the 18th Century, MacMillan and Co., Ltd. (Londres) : viii + 524 p.
@@ -766,9 +1221,43 @@
 (en) Andrew Polaszek (dir.) (2010). Systema Naturae 250 : The Linnaean Ark, CRC Press - Taylor &amp; Francis Group (Boca Raton, Londres, New York) : xvi + 276 p.  (ISBN 978-1-420-09501-2)
 Compilation des actes du Colloque célébrant les 250 ans du Systema Naturae lors du 20e Congrès international de Zoologie organisé à Paris du 26 au 29 août 2008.
 (en) Mary P. Winsor (1991). Reading the Shape of Nature : Comparative Zoology at the Agassiz Museum. University of Chicago Press (Chicago) : xviii + 324 p.  (ISBN 0226902153)
-Ouvrage sur l'histoire du muséum de zoologie comparée de Louis Agassiz à l'Université Harvard.
-Relations avec les animaux
-(fr) Janick Auberger et Peter Keating (2009). Histoire humaine des Animaux : De l'Antiquité à nos jours. Ellipses (Paris) : 277 p.  (ISBN 978-2-7298-4168-3)
+Ouvrage sur l'histoire du muséum de zoologie comparée de Louis Agassiz à l'Université Harvard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Relations avec les animaux</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(fr) Janick Auberger et Peter Keating (2009). Histoire humaine des Animaux : De l'Antiquité à nos jours. Ellipses (Paris) : 277 p.  (ISBN 978-2-7298-4168-3)
 (fr) Damien Baldin (2014). Histoire des animaux domestiques (XIXe – XXe siècle), Seuil (Paris) : 377 p.  (ISBN 978-2-02-097450-9)
 (fr) Éric Baratay (2012). Le Point de vue animal : Une autre version de l'histoire, Seuil (Paris), collection L'Univers Historique : 388 p.  (ISBN 978-2-02-098285-6)
 (fr) Corinne Beck et Fabrice Guizard-Duchamp (dir.) (2012). La bête captive au Moyen Âge et à l’époque moderne. Encrage Édition (Amiens), collection Encrage Université : 185 p.  (ISBN 978-2-36058-026-2)
@@ -787,24 +1276,133 @@
 (fr) Pierre Loevenbruck (1955). Les animaux sauvages dans l’histoire, Payot (Paris), collection Bibliothèque historique : 208 p.
 (en) Louise E. Robbins (2002). Elephant Slaves and Pampered Parrots : Exotic Animals in Eighteenth Century Paris. Johns Hopkins University Press (Baltimore) : 349 p.  (ISBN 0801867533)
 (fr) Victoria Vanneau (2014). Le Chien : Histoire d'un objet de compagnie, Autrement (Paris), collection Leçons de choses : 223 p.  (ISBN 978-2746732759)
-(en) Frederick E. Zeuner (1963). A History of Domesticated Animals. Harper &amp; Row Publishers (New York) : 558 p.
-Mammalogie
-Ouvrages généraux
-(en) Bo Beolens, Michael Watkins &amp; Michael Grayson (2009). The Eponym Dictionary of Mammals, Johns Hopkins University Press (Baltimore) : xiii + 574 p.  (ISBN 978-0-8018-9304-9)
+(en) Frederick E. Zeuner (1963). A History of Domesticated Animals. Harper &amp; Row Publishers (New York) : 558 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mammalogie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(en) Bo Beolens, Michael Watkins &amp; Michael Grayson (2009). The Eponym Dictionary of Mammals, Johns Hopkins University Press (Baltimore) : xiii + 574 p.  (ISBN 978-0-8018-9304-9)
 (en) Elmer C. Birney et Jerry R. Choate (1994). Seventy-five Years of Mammalogy (1919-1994), American Society of Mammalogists (Provo) : xiv + 433 p.  (ISBN 0935868739)
 (fr) Pierre Cabard et Bernard Chauvet (1998). L’Étymologie des noms de mammifères, Éveil Nature (Saint-Yrieix-sur-Charente), collection Éveil nature : 240 p.  (ISBN 2-84000-017-2)
 (en) Keir B. Sterling (dir.) (1987). An International History of Mammalogy. Volume One. Eastern Europe and Fennoscandia, One World Press (Bel Air, Maryland) : xxiv + 198 p.
 Les deux volumes suivants de cette série sont annoncés depuis plusieurs années.
-(fr) Henriette Walter et Pierre Avenas (2003). L’étonnante histoire des noms des mammifères : de la musaraigne étrusque à la baleine bleue. Éditions Robert Laffont (Paris) : 486 p.  (ISBN 2-221-09157-4)
-Ouvrages spécialisés
-(en) Agustín Fuentes (dir.) (2017). The International Encyclopedia of Primatology, 3 volumes, John Wiley &amp; Sons, Inc. (Chichester, West Sussex) : xlvii + 1535 p.  (ISBN 978-0-470-67337-9)
+(fr) Henriette Walter et Pierre Avenas (2003). L’étonnante histoire des noms des mammifères : de la musaraigne étrusque à la baleine bleue. Éditions Robert Laffont (Paris) : 486 p.  (ISBN 2-221-09157-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mammalogie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ouvrages spécialisés</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(en) Agustín Fuentes (dir.) (2017). The International Encyclopedia of Primatology, 3 volumes, John Wiley &amp; Sons, Inc. (Chichester, West Sussex) : xlvii + 1535 p.  (ISBN 978-0-470-67337-9)
 Volume I : A-G ; xlvii + p. 1-510.
 Volume II : H-O ; p. 511-916.
-Volume III : P-Z ; p. 917-1535.
-Ornithologie
-En français : Monographie récente : Chansigaud (2007). Le seul autre ouvrage disponible (Boubier, 1925) est difficile à trouver et date de 80 ans. Par ailleurs, l'ouvrage de Cabard et Chauvet (2003) qui fait le point sur l'étymologie des noms d'oiseaux présente aussi une série de notices biographiques qui, même si elles ne constituent pas une histoire de la discipline, permettre d'en découvrir certains de ses aspects.
+Volume III : P-Z ; p. 917-1535.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_l'histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_l%27histoire_de_la_zoologie_et_de_la_botanique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Ornithologie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français : Monographie récente : Chansigaud (2007). Le seul autre ouvrage disponible (Boubier, 1925) est difficile à trouver et date de 80 ans. Par ailleurs, l'ouvrage de Cabard et Chauvet (2003) qui fait le point sur l'étymologie des noms d'oiseaux présente aussi une série de notices biographiques qui, même si elles ne constituent pas une histoire de la discipline, permettre d'en découvrir certains de ses aspects.
 En anglais : le choix est plus vaste. Walters (2003) offre une bonne présentation de l'histoire de l'ornithologie (voir aussi Stresemann, 1975). Il faut aussi citer une intéressante étude de l'ornithologie comme science (Farber, 1996). Mearns et Mearns (1998) offre un angle très original en analysant le rôle et la place de la collection chez les ornithologues. Il existe aussi plusieurs livres d'étymologie semblable à l'ouvrage de Cabard et Chauvet cités plus haut comme Gruson (1972), Beolens et Watkins (2003), Mearns et Mearns (1988), ces deux derniers ouvrages étant plus historiques que le premier. Enfin, ces livres peuvent être complétés par des ouvrages sur l'histoire de l'ornithologie américaine (Barrow, 1998, Davis et Jackson, 1995, Kastner, 1986, Gibbons et Deborah, 1972).
-Ouvrages généraux</t>
+</t>
         </is>
       </c>
     </row>
